--- a/natmiOut/YoungD4/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
+++ b/natmiOut/YoungD4/LR-pairs_lrc2p/Edn1-Ednrb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +92,6 @@
   </si>
   <si>
     <t>Ednrb</t>
-  </si>
-  <si>
-    <t>M1</t>
   </si>
   <si>
     <t>M2</t>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.2362524540844</v>
+        <v>17.42578233333333</v>
       </c>
       <c r="H2">
-        <v>16.2362524540844</v>
+        <v>52.277347</v>
       </c>
       <c r="I2">
-        <v>0.9839518644006782</v>
+        <v>0.9575955782190683</v>
       </c>
       <c r="J2">
-        <v>0.9839518644006782</v>
+        <v>0.9575955782190683</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>18.7690665084911</v>
+        <v>22.20462366666667</v>
       </c>
       <c r="N2">
-        <v>18.7690665084911</v>
+        <v>66.613871</v>
       </c>
       <c r="O2">
-        <v>0.3363025523576709</v>
+        <v>0.2978227249605296</v>
       </c>
       <c r="P2">
-        <v>0.3363025523576709</v>
+        <v>0.2978227249605296</v>
       </c>
       <c r="Q2">
-        <v>304.739302159362</v>
+        <v>386.9329388089153</v>
       </c>
       <c r="R2">
-        <v>304.739302159362</v>
+        <v>3482.396449280237</v>
       </c>
       <c r="S2">
-        <v>0.330905523395037</v>
+        <v>0.2851937245153569</v>
       </c>
       <c r="T2">
-        <v>0.330905523395037</v>
+        <v>0.2851937245153569</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.2362524540844</v>
+        <v>17.42578233333333</v>
       </c>
       <c r="H3">
-        <v>16.2362524540844</v>
+        <v>52.277347</v>
       </c>
       <c r="I3">
-        <v>0.9839518644006782</v>
+        <v>0.9575955782190683</v>
       </c>
       <c r="J3">
-        <v>0.9839518644006782</v>
+        <v>0.9575955782190683</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>15.4189305701728</v>
+        <v>0.283297</v>
       </c>
       <c r="N3">
-        <v>15.4189305701728</v>
+        <v>0.849891</v>
       </c>
       <c r="O3">
-        <v>0.2762750988723361</v>
+        <v>0.003799761967585241</v>
       </c>
       <c r="P3">
-        <v>0.2762750988723361</v>
+        <v>0.003799761967585241</v>
       </c>
       <c r="Q3">
-        <v>250.3456493093251</v>
+        <v>4.936671857686333</v>
       </c>
       <c r="R3">
-        <v>250.3456493093251</v>
+        <v>44.430046719177</v>
       </c>
       <c r="S3">
-        <v>0.2718413986229168</v>
+        <v>0.003638635258444613</v>
       </c>
       <c r="T3">
-        <v>0.2718413986229168</v>
+        <v>0.003638635258444614</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.2362524540844</v>
+        <v>17.42578233333333</v>
       </c>
       <c r="H4">
-        <v>16.2362524540844</v>
+        <v>52.277347</v>
       </c>
       <c r="I4">
-        <v>0.9839518644006782</v>
+        <v>0.9575955782190683</v>
       </c>
       <c r="J4">
-        <v>0.9839518644006782</v>
+        <v>0.9575955782190683</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.219300923396</v>
+        <v>16.39074133333333</v>
       </c>
       <c r="N4">
-        <v>11.219300923396</v>
+        <v>49.172224</v>
       </c>
       <c r="O4">
-        <v>0.2010264886908421</v>
+        <v>0.2198431876755751</v>
       </c>
       <c r="P4">
-        <v>0.2010264886908421</v>
+        <v>0.2198431876755751</v>
       </c>
       <c r="Q4">
-        <v>182.1594021505997</v>
+        <v>285.6214907566365</v>
       </c>
       <c r="R4">
-        <v>182.1594021505997</v>
+        <v>2570.593416809728</v>
       </c>
       <c r="S4">
-        <v>0.1978003883412759</v>
+        <v>0.2105208644197155</v>
       </c>
       <c r="T4">
-        <v>0.1978003883412759</v>
+        <v>0.2105208644197155</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,123 +711,123 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.2362524540844</v>
+        <v>17.42578233333333</v>
       </c>
       <c r="H5">
-        <v>16.2362524540844</v>
+        <v>52.277347</v>
       </c>
       <c r="I5">
-        <v>0.9839518644006782</v>
+        <v>0.9575955782190683</v>
       </c>
       <c r="J5">
-        <v>0.9839518644006782</v>
+        <v>0.9575955782190683</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.4027646243143</v>
+        <v>12.09279533333333</v>
       </c>
       <c r="N5">
-        <v>10.4027646243143</v>
+        <v>36.278386</v>
       </c>
       <c r="O5">
-        <v>0.186395860079151</v>
+        <v>0.1621963656141515</v>
       </c>
       <c r="P5">
-        <v>0.186395860079151</v>
+        <v>0.1621963656141515</v>
       </c>
       <c r="Q5">
-        <v>168.9019126607854</v>
+        <v>210.7264192802158</v>
       </c>
       <c r="R5">
-        <v>168.9019126607854</v>
+        <v>1896.537773521942</v>
       </c>
       <c r="S5">
-        <v>0.1834045540414486</v>
+        <v>0.1553185225153149</v>
       </c>
       <c r="T5">
-        <v>0.1834045540414486</v>
+        <v>0.1553185225153149</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.264811308799821</v>
+        <v>17.42578233333333</v>
       </c>
       <c r="H6">
-        <v>0.264811308799821</v>
+        <v>52.277347</v>
       </c>
       <c r="I6">
-        <v>0.01604813559932179</v>
+        <v>0.9575955782190683</v>
       </c>
       <c r="J6">
-        <v>0.01604813559932179</v>
+        <v>0.9575955782190683</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.7690665084911</v>
+        <v>23.585055</v>
       </c>
       <c r="N6">
-        <v>18.7690665084911</v>
+        <v>70.75516500000001</v>
       </c>
       <c r="O6">
-        <v>0.3363025523576709</v>
+        <v>0.3163379597821584</v>
       </c>
       <c r="P6">
-        <v>0.3363025523576709</v>
+        <v>0.3163379597821585</v>
       </c>
       <c r="Q6">
-        <v>4.970261067064415</v>
+        <v>410.988034749695</v>
       </c>
       <c r="R6">
-        <v>4.970261067064415</v>
+        <v>3698.892312747255</v>
       </c>
       <c r="S6">
-        <v>0.005397028962633919</v>
+        <v>0.3029238315102363</v>
       </c>
       <c r="T6">
-        <v>0.005397028962633919</v>
+        <v>0.3029238315102364</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.264811308799821</v>
+        <v>0.232822</v>
       </c>
       <c r="H7">
-        <v>0.264811308799821</v>
+        <v>0.698466</v>
       </c>
       <c r="I7">
-        <v>0.01604813559932179</v>
+        <v>0.01279422142704295</v>
       </c>
       <c r="J7">
-        <v>0.01604813559932179</v>
+        <v>0.01279422142704295</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>15.4189305701728</v>
+        <v>22.20462366666667</v>
       </c>
       <c r="N7">
-        <v>15.4189305701728</v>
+        <v>66.613871</v>
       </c>
       <c r="O7">
-        <v>0.2762750988723361</v>
+        <v>0.2978227249605296</v>
       </c>
       <c r="P7">
-        <v>0.2762750988723361</v>
+        <v>0.2978227249605296</v>
       </c>
       <c r="Q7">
-        <v>4.08310718458103</v>
+        <v>5.169724891320667</v>
       </c>
       <c r="R7">
-        <v>4.08310718458103</v>
+        <v>46.527524021886</v>
       </c>
       <c r="S7">
-        <v>0.004433700249419283</v>
+        <v>0.003810409889150328</v>
       </c>
       <c r="T7">
-        <v>0.004433700249419283</v>
+        <v>0.003810409889150328</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.264811308799821</v>
+        <v>0.232822</v>
       </c>
       <c r="H8">
-        <v>0.264811308799821</v>
+        <v>0.698466</v>
       </c>
       <c r="I8">
-        <v>0.01604813559932179</v>
+        <v>0.01279422142704295</v>
       </c>
       <c r="J8">
-        <v>0.01604813559932179</v>
+        <v>0.01279422142704295</v>
       </c>
       <c r="K8">
         <v>1</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>11.219300923396</v>
+        <v>0.283297</v>
       </c>
       <c r="N8">
-        <v>11.219300923396</v>
+        <v>0.849891</v>
       </c>
       <c r="O8">
-        <v>0.2010264886908421</v>
+        <v>0.003799761967585241</v>
       </c>
       <c r="P8">
-        <v>0.2010264886908421</v>
+        <v>0.003799761967585241</v>
       </c>
       <c r="Q8">
-        <v>2.970997761343535</v>
+        <v>0.06595777413399999</v>
       </c>
       <c r="R8">
-        <v>2.970997761343535</v>
+        <v>0.593619967206</v>
       </c>
       <c r="S8">
-        <v>0.003226100349566162</v>
+        <v>4.861499598334198E-05</v>
       </c>
       <c r="T8">
-        <v>0.003226100349566162</v>
+        <v>4.861499598334199E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +959,805 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G9">
+        <v>0.232822</v>
+      </c>
+      <c r="H9">
+        <v>0.698466</v>
+      </c>
+      <c r="I9">
+        <v>0.01279422142704295</v>
+      </c>
+      <c r="J9">
+        <v>0.01279422142704295</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>16.39074133333333</v>
+      </c>
+      <c r="N9">
+        <v>49.172224</v>
+      </c>
+      <c r="O9">
+        <v>0.2198431876755751</v>
+      </c>
+      <c r="P9">
+        <v>0.2198431876755751</v>
+      </c>
+      <c r="Q9">
+        <v>3.816125178709334</v>
+      </c>
+      <c r="R9">
+        <v>34.345126608384</v>
+      </c>
+      <c r="S9">
+        <v>0.002812722422348269</v>
+      </c>
+      <c r="T9">
+        <v>0.002812722422348269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>26</v>
+      </c>
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G10">
+        <v>0.232822</v>
+      </c>
+      <c r="H10">
+        <v>0.698466</v>
+      </c>
+      <c r="I10">
+        <v>0.01279422142704295</v>
+      </c>
+      <c r="J10">
+        <v>0.01279422142704295</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>12.09279533333333</v>
+      </c>
+      <c r="N10">
+        <v>36.278386</v>
+      </c>
+      <c r="O10">
+        <v>0.1621963656141515</v>
+      </c>
+      <c r="P10">
+        <v>0.1621963656141515</v>
+      </c>
+      <c r="Q10">
+        <v>2.815468795097333</v>
+      </c>
+      <c r="R10">
+        <v>25.339219155876</v>
+      </c>
+      <c r="S10">
+        <v>0.002075176216329071</v>
+      </c>
+      <c r="T10">
+        <v>0.002075176216329071</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
         <v>23</v>
       </c>
-      <c r="D9" t="s">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.232822</v>
+      </c>
+      <c r="H11">
+        <v>0.698466</v>
+      </c>
+      <c r="I11">
+        <v>0.01279422142704295</v>
+      </c>
+      <c r="J11">
+        <v>0.01279422142704295</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>23.585055</v>
+      </c>
+      <c r="N11">
+        <v>70.75516500000001</v>
+      </c>
+      <c r="O11">
+        <v>0.3163379597821584</v>
+      </c>
+      <c r="P11">
+        <v>0.3163379597821585</v>
+      </c>
+      <c r="Q11">
+        <v>5.49111967521</v>
+      </c>
+      <c r="R11">
+        <v>49.42007707689</v>
+      </c>
+      <c r="S11">
+        <v>0.004047297903231943</v>
+      </c>
+      <c r="T11">
+        <v>0.004047297903231944</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.2319753333333333</v>
+      </c>
+      <c r="H12">
+        <v>0.695926</v>
+      </c>
+      <c r="I12">
+        <v>0.01274769472076851</v>
+      </c>
+      <c r="J12">
+        <v>0.01274769472076851</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>22.20462366666667</v>
+      </c>
+      <c r="N12">
+        <v>66.613871</v>
+      </c>
+      <c r="O12">
+        <v>0.2978227249605296</v>
+      </c>
+      <c r="P12">
+        <v>0.2978227249605296</v>
+      </c>
+      <c r="Q12">
+        <v>5.150924976616222</v>
+      </c>
+      <c r="R12">
+        <v>46.358324789546</v>
+      </c>
+      <c r="S12">
+        <v>0.003796553178704234</v>
+      </c>
+      <c r="T12">
+        <v>0.003796553178704234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>21</v>
       </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.264811308799821</v>
-      </c>
-      <c r="H9">
-        <v>0.264811308799821</v>
-      </c>
-      <c r="I9">
-        <v>0.01604813559932179</v>
-      </c>
-      <c r="J9">
-        <v>0.01604813559932179</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>10.4027646243143</v>
-      </c>
-      <c r="N9">
-        <v>10.4027646243143</v>
-      </c>
-      <c r="O9">
-        <v>0.186395860079151</v>
-      </c>
-      <c r="P9">
-        <v>0.186395860079151</v>
-      </c>
-      <c r="Q9">
-        <v>2.754769715301148</v>
-      </c>
-      <c r="R9">
-        <v>2.754769715301148</v>
-      </c>
-      <c r="S9">
-        <v>0.002991306037702426</v>
-      </c>
-      <c r="T9">
-        <v>0.002991306037702426</v>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.2319753333333333</v>
+      </c>
+      <c r="H13">
+        <v>0.695926</v>
+      </c>
+      <c r="I13">
+        <v>0.01274769472076851</v>
+      </c>
+      <c r="J13">
+        <v>0.01274769472076851</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M13">
+        <v>0.283297</v>
+      </c>
+      <c r="N13">
+        <v>0.849891</v>
+      </c>
+      <c r="O13">
+        <v>0.003799761967585241</v>
+      </c>
+      <c r="P13">
+        <v>0.003799761967585241</v>
+      </c>
+      <c r="Q13">
+        <v>0.06571791600733333</v>
+      </c>
+      <c r="R13">
+        <v>0.591461244066</v>
+      </c>
+      <c r="S13">
+        <v>4.843820557436332E-05</v>
+      </c>
+      <c r="T13">
+        <v>4.843820557436333E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.2319753333333333</v>
+      </c>
+      <c r="H14">
+        <v>0.695926</v>
+      </c>
+      <c r="I14">
+        <v>0.01274769472076851</v>
+      </c>
+      <c r="J14">
+        <v>0.01274769472076851</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>16.39074133333333</v>
+      </c>
+      <c r="N14">
+        <v>49.172224</v>
+      </c>
+      <c r="O14">
+        <v>0.2198431876755751</v>
+      </c>
+      <c r="P14">
+        <v>0.2198431876755751</v>
+      </c>
+      <c r="Q14">
+        <v>3.802247684380445</v>
+      </c>
+      <c r="R14">
+        <v>34.220229159424</v>
+      </c>
+      <c r="S14">
+        <v>0.002802493842928849</v>
+      </c>
+      <c r="T14">
+        <v>0.002802493842928849</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.2319753333333333</v>
+      </c>
+      <c r="H15">
+        <v>0.695926</v>
+      </c>
+      <c r="I15">
+        <v>0.01274769472076851</v>
+      </c>
+      <c r="J15">
+        <v>0.01274769472076851</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>12.09279533333333</v>
+      </c>
+      <c r="N15">
+        <v>36.278386</v>
+      </c>
+      <c r="O15">
+        <v>0.1621963656141515</v>
+      </c>
+      <c r="P15">
+        <v>0.1621963656141515</v>
+      </c>
+      <c r="Q15">
+        <v>2.805230228381778</v>
+      </c>
+      <c r="R15">
+        <v>25.247072055436</v>
+      </c>
+      <c r="S15">
+        <v>0.002067629753667358</v>
+      </c>
+      <c r="T15">
+        <v>0.002067629753667358</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.2319753333333333</v>
+      </c>
+      <c r="H16">
+        <v>0.695926</v>
+      </c>
+      <c r="I16">
+        <v>0.01274769472076851</v>
+      </c>
+      <c r="J16">
+        <v>0.01274769472076851</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>23.585055</v>
+      </c>
+      <c r="N16">
+        <v>70.75516500000001</v>
+      </c>
+      <c r="O16">
+        <v>0.3163379597821584</v>
+      </c>
+      <c r="P16">
+        <v>0.3163379597821585</v>
+      </c>
+      <c r="Q16">
+        <v>5.47115099531</v>
+      </c>
+      <c r="R16">
+        <v>49.24035895779001</v>
+      </c>
+      <c r="S16">
+        <v>0.004032579739893701</v>
+      </c>
+      <c r="T16">
+        <v>0.004032579739893702</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.3068543333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.920563</v>
+      </c>
+      <c r="I17">
+        <v>0.01686250563312022</v>
+      </c>
+      <c r="J17">
+        <v>0.01686250563312022</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>22.20462366666667</v>
+      </c>
+      <c r="N17">
+        <v>66.613871</v>
+      </c>
+      <c r="O17">
+        <v>0.2978227249605296</v>
+      </c>
+      <c r="P17">
+        <v>0.2978227249605296</v>
+      </c>
+      <c r="Q17">
+        <v>6.813584992152555</v>
+      </c>
+      <c r="R17">
+        <v>61.32226492937301</v>
+      </c>
+      <c r="S17">
+        <v>0.005022037377318143</v>
+      </c>
+      <c r="T17">
+        <v>0.005022037377318143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0.3068543333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.920563</v>
+      </c>
+      <c r="I18">
+        <v>0.01686250563312022</v>
+      </c>
+      <c r="J18">
+        <v>0.01686250563312022</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M18">
+        <v>0.283297</v>
+      </c>
+      <c r="N18">
+        <v>0.849891</v>
+      </c>
+      <c r="O18">
+        <v>0.003799761967585241</v>
+      </c>
+      <c r="P18">
+        <v>0.003799761967585241</v>
+      </c>
+      <c r="Q18">
+        <v>0.08693091207033332</v>
+      </c>
+      <c r="R18">
+        <v>0.782378208633</v>
+      </c>
+      <c r="S18">
+        <v>6.407350758292207E-05</v>
+      </c>
+      <c r="T18">
+        <v>6.407350758292209E-05</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3068543333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.920563</v>
+      </c>
+      <c r="I19">
+        <v>0.01686250563312022</v>
+      </c>
+      <c r="J19">
+        <v>0.01686250563312022</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>16.39074133333333</v>
+      </c>
+      <c r="N19">
+        <v>49.172224</v>
+      </c>
+      <c r="O19">
+        <v>0.2198431876755751</v>
+      </c>
+      <c r="P19">
+        <v>0.2198431876755751</v>
+      </c>
+      <c r="Q19">
+        <v>5.029570004679112</v>
+      </c>
+      <c r="R19">
+        <v>45.266130042112</v>
+      </c>
+      <c r="S19">
+        <v>0.00370710699058249</v>
+      </c>
+      <c r="T19">
+        <v>0.00370710699058249</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.3068543333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.920563</v>
+      </c>
+      <c r="I20">
+        <v>0.01686250563312022</v>
+      </c>
+      <c r="J20">
+        <v>0.01686250563312022</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>12.09279533333333</v>
+      </c>
+      <c r="N20">
+        <v>36.278386</v>
+      </c>
+      <c r="O20">
+        <v>0.1621963656141515</v>
+      </c>
+      <c r="P20">
+        <v>0.1621963656141515</v>
+      </c>
+      <c r="Q20">
+        <v>3.710726650146444</v>
+      </c>
+      <c r="R20">
+        <v>33.396539851318</v>
+      </c>
+      <c r="S20">
+        <v>0.002735037128840257</v>
+      </c>
+      <c r="T20">
+        <v>0.002735037128840257</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.3068543333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.920563</v>
+      </c>
+      <c r="I21">
+        <v>0.01686250563312022</v>
+      </c>
+      <c r="J21">
+        <v>0.01686250563312022</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>23.585055</v>
+      </c>
+      <c r="N21">
+        <v>70.75516500000001</v>
+      </c>
+      <c r="O21">
+        <v>0.3163379597821584</v>
+      </c>
+      <c r="P21">
+        <v>0.3163379597821585</v>
+      </c>
+      <c r="Q21">
+        <v>7.237176328655</v>
+      </c>
+      <c r="R21">
+        <v>65.13458695789501</v>
+      </c>
+      <c r="S21">
+        <v>0.005334250628796403</v>
+      </c>
+      <c r="T21">
+        <v>0.005334250628796403</v>
       </c>
     </row>
   </sheetData>
